--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H2">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I2">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J2">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>144.7663285946898</v>
+        <v>171.1983656185662</v>
       </c>
       <c r="R2">
-        <v>144.7663285946898</v>
+        <v>1540.785290567096</v>
       </c>
       <c r="S2">
-        <v>0.006031851960552279</v>
+        <v>0.005955795748741204</v>
       </c>
       <c r="T2">
-        <v>0.006031851960552279</v>
+        <v>0.006206113971351171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H3">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I3">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J3">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>7543.29754873295</v>
+        <v>8059.728466085285</v>
       </c>
       <c r="R3">
-        <v>7543.29754873295</v>
+        <v>72537.55619476756</v>
       </c>
       <c r="S3">
-        <v>0.3142999794913846</v>
+        <v>0.2803887546524184</v>
       </c>
       <c r="T3">
-        <v>0.3142999794913846</v>
+        <v>0.2921733116898638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H4">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I4">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J4">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>4980.70265237245</v>
+        <v>5089.935037755859</v>
       </c>
       <c r="R4">
-        <v>4980.70265237245</v>
+        <v>45809.41533980273</v>
       </c>
       <c r="S4">
-        <v>0.207526579904871</v>
+        <v>0.1770730307483009</v>
       </c>
       <c r="T4">
-        <v>0.207526579904871</v>
+        <v>0.184515295090298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H5">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I5">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J5">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>5846.214065289666</v>
+        <v>6062.672115748495</v>
       </c>
       <c r="R5">
-        <v>5846.214065289666</v>
+        <v>54564.04904173646</v>
       </c>
       <c r="S5">
-        <v>0.2435890867292416</v>
+        <v>0.2109134434930076</v>
       </c>
       <c r="T5">
-        <v>0.2435890867292416</v>
+        <v>0.2197779983782009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H6">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I6">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J6">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>1767.397912486563</v>
+        <v>1798.384895928349</v>
       </c>
       <c r="R6">
-        <v>1767.397912486563</v>
+        <v>10790.30937557009</v>
       </c>
       <c r="S6">
-        <v>0.07364062256048076</v>
+        <v>0.06256375800709675</v>
       </c>
       <c r="T6">
-        <v>0.07364062256048076</v>
+        <v>0.04346218138302699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>4.08086100311754</v>
+        <v>0.244247</v>
       </c>
       <c r="H7">
-        <v>4.08086100311754</v>
+        <v>0.732741</v>
       </c>
       <c r="I7">
-        <v>0.08002201152429697</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J7">
-        <v>0.08002201152429697</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>13.70802941386961</v>
+        <v>0.9639634473093333</v>
       </c>
       <c r="R7">
-        <v>13.70802941386961</v>
+        <v>8.675671025784</v>
       </c>
       <c r="S7">
-        <v>0.0005711604687223567</v>
+        <v>3.353518814670402E-05</v>
       </c>
       <c r="T7">
-        <v>0.0005711604687223567</v>
+        <v>3.494465029851605E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>4.08086100311754</v>
+        <v>0.244247</v>
       </c>
       <c r="H8">
-        <v>4.08086100311754</v>
+        <v>0.732741</v>
       </c>
       <c r="I8">
-        <v>0.08002201152429697</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J8">
-        <v>0.08002201152429697</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>714.2803556558165</v>
+        <v>45.38176289518366</v>
       </c>
       <c r="R8">
-        <v>714.2803556558165</v>
+        <v>408.435866056653</v>
       </c>
       <c r="S8">
-        <v>0.02976129467031711</v>
+        <v>0.001578779736272226</v>
       </c>
       <c r="T8">
-        <v>0.02976129467031711</v>
+        <v>0.001645134821998567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>4.08086100311754</v>
+        <v>0.244247</v>
       </c>
       <c r="H9">
-        <v>4.08086100311754</v>
+        <v>0.732741</v>
       </c>
       <c r="I9">
-        <v>0.08002201152429697</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J9">
-        <v>0.08002201152429697</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>471.6263728122506</v>
+        <v>28.65980237514367</v>
       </c>
       <c r="R9">
-        <v>471.6263728122506</v>
+        <v>257.938221376293</v>
       </c>
       <c r="S9">
-        <v>0.01965084346001771</v>
+        <v>0.0009970418147913229</v>
       </c>
       <c r="T9">
-        <v>0.01965084346001771</v>
+        <v>0.001038946833948357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>4.08086100311754</v>
+        <v>0.244247</v>
       </c>
       <c r="H10">
-        <v>4.08086100311754</v>
+        <v>0.732741</v>
       </c>
       <c r="I10">
-        <v>0.08002201152429697</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J10">
-        <v>0.08002201152429697</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>553.5822808019228</v>
+        <v>34.13697491495967</v>
       </c>
       <c r="R10">
-        <v>553.5822808019228</v>
+        <v>307.232774234637</v>
       </c>
       <c r="S10">
-        <v>0.02306562857673082</v>
+        <v>0.001187586396276629</v>
       </c>
       <c r="T10">
-        <v>0.02306562857673082</v>
+        <v>0.001237499880293366</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>4.08086100311754</v>
+        <v>0.244247</v>
       </c>
       <c r="H11">
-        <v>4.08086100311754</v>
+        <v>0.732741</v>
       </c>
       <c r="I11">
-        <v>0.08002201152429697</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J11">
-        <v>0.08002201152429697</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>167.3561995083038</v>
+        <v>10.126132323778</v>
       </c>
       <c r="R11">
-        <v>167.3561995083038</v>
+        <v>60.756793942668</v>
       </c>
       <c r="S11">
-        <v>0.006973084348508988</v>
+        <v>0.0003522765864454459</v>
       </c>
       <c r="T11">
-        <v>0.006973084348508988</v>
+        <v>0.0002447216948724344</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.77145649595081</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H12">
-        <v>1.77145649595081</v>
+        <v>22.945901</v>
       </c>
       <c r="I12">
-        <v>0.03473666758693165</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J12">
-        <v>0.03473666758693165</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>5.950503517109053</v>
+        <v>30.18666872684711</v>
       </c>
       <c r="R12">
-        <v>5.950503517109053</v>
+        <v>271.680018541624</v>
       </c>
       <c r="S12">
-        <v>0.0002479344240775618</v>
+        <v>0.00105015975253281</v>
       </c>
       <c r="T12">
-        <v>0.0002479344240775618</v>
+        <v>0.001094297284073595</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.77145649595081</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H13">
-        <v>1.77145649595081</v>
+        <v>22.945901</v>
       </c>
       <c r="I13">
-        <v>0.03473666758693165</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J13">
-        <v>0.03473666758693165</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>310.0611794888194</v>
+        <v>1421.137125666992</v>
       </c>
       <c r="R13">
-        <v>310.0611794888194</v>
+        <v>12790.23413100293</v>
       </c>
       <c r="S13">
-        <v>0.01291904789978483</v>
+        <v>0.04943973863794793</v>
       </c>
       <c r="T13">
-        <v>0.01291904789978483</v>
+        <v>0.05151765870509734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.77145649595081</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H14">
-        <v>1.77145649595081</v>
+        <v>22.945901</v>
       </c>
       <c r="I14">
-        <v>0.03473666758693165</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J14">
-        <v>0.03473666758693165</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>204.7277770896222</v>
+        <v>897.4862713832192</v>
       </c>
       <c r="R14">
-        <v>204.7277770896222</v>
+        <v>8077.376442448974</v>
       </c>
       <c r="S14">
-        <v>0.008530213175986043</v>
+        <v>0.03122252306758054</v>
       </c>
       <c r="T14">
-        <v>0.008530213175986043</v>
+        <v>0.03253478540990941</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.77145649595081</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H15">
-        <v>1.77145649595081</v>
+        <v>22.945901</v>
       </c>
       <c r="I15">
-        <v>0.03473666758693165</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J15">
-        <v>0.03473666758693165</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>240.303927681113</v>
+        <v>1069.004800929862</v>
       </c>
       <c r="R15">
-        <v>240.303927681113</v>
+        <v>9621.043208368757</v>
       </c>
       <c r="S15">
-        <v>0.01001253351785909</v>
+        <v>0.03718945695397187</v>
       </c>
       <c r="T15">
-        <v>0.01001253351785909</v>
+        <v>0.03875250564759367</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.77145649595081</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H16">
-        <v>1.77145649595081</v>
+        <v>22.945901</v>
       </c>
       <c r="I16">
-        <v>0.03473666758693165</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J16">
-        <v>0.03473666758693165</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>72.64746986730081</v>
+        <v>317.1014448683913</v>
       </c>
       <c r="R16">
-        <v>72.64746986730081</v>
+        <v>1902.608669210348</v>
       </c>
       <c r="S16">
-        <v>0.003026938569224133</v>
+        <v>0.01103159735458387</v>
       </c>
       <c r="T16">
-        <v>0.003026938569224133</v>
+        <v>0.007663498812124731</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.04768195522278</v>
+        <v>5.408032666666666</v>
       </c>
       <c r="H17">
-        <v>2.04768195522278</v>
+        <v>16.224098</v>
       </c>
       <c r="I17">
-        <v>0.04015320024224129</v>
+        <v>0.0918705891879434</v>
       </c>
       <c r="J17">
-        <v>0.04015320024224129</v>
+        <v>0.09302257871513717</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>6.878373081317963</v>
+        <v>21.34374552203911</v>
       </c>
       <c r="R17">
-        <v>6.878373081317963</v>
+        <v>192.093709698352</v>
       </c>
       <c r="S17">
-        <v>0.0002865951534359742</v>
+        <v>0.0007425245467915188</v>
       </c>
       <c r="T17">
-        <v>0.0002865951534359742</v>
+        <v>0.0007737323706723846</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.04768195522278</v>
+        <v>5.408032666666666</v>
       </c>
       <c r="H18">
-        <v>2.04768195522278</v>
+        <v>16.224098</v>
       </c>
       <c r="I18">
-        <v>0.04015320024224129</v>
+        <v>0.0918705891879434</v>
       </c>
       <c r="J18">
-        <v>0.04015320024224129</v>
+        <v>0.09302257871513717</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>358.4094126531556</v>
+        <v>1004.827310910981</v>
       </c>
       <c r="R18">
-        <v>358.4094126531556</v>
+        <v>9043.445798198833</v>
       </c>
       <c r="S18">
-        <v>0.0149335314321954</v>
+        <v>0.03495679532289683</v>
       </c>
       <c r="T18">
-        <v>0.0149335314321954</v>
+        <v>0.03642600669993531</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.04768195522278</v>
+        <v>5.408032666666666</v>
       </c>
       <c r="H19">
-        <v>2.04768195522278</v>
+        <v>16.224098</v>
       </c>
       <c r="I19">
-        <v>0.04015320024224129</v>
+        <v>0.0918705891879434</v>
       </c>
       <c r="J19">
-        <v>0.04015320024224129</v>
+        <v>0.09302257871513717</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>236.6512391568954</v>
+        <v>634.5754398825283</v>
       </c>
       <c r="R19">
-        <v>236.6512391568954</v>
+        <v>5711.178958942754</v>
       </c>
       <c r="S19">
-        <v>0.009860340140780544</v>
+        <v>0.02207615530354146</v>
       </c>
       <c r="T19">
-        <v>0.009860340140780544</v>
+        <v>0.0230040017561019</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.04768195522278</v>
+        <v>5.408032666666666</v>
       </c>
       <c r="H20">
-        <v>2.04768195522278</v>
+        <v>16.224098</v>
       </c>
       <c r="I20">
-        <v>0.04015320024224129</v>
+        <v>0.0918705891879434</v>
       </c>
       <c r="J20">
-        <v>0.04015320024224129</v>
+        <v>0.09302257871513717</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>277.7748240538438</v>
+        <v>755.8491014476429</v>
       </c>
       <c r="R20">
-        <v>277.7748240538438</v>
+        <v>6802.641913028785</v>
       </c>
       <c r="S20">
-        <v>0.01157380057452601</v>
+        <v>0.02629512757803762</v>
       </c>
       <c r="T20">
-        <v>0.01157380057452601</v>
+        <v>0.02740029469194141</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H21">
+        <v>16.224098</v>
+      </c>
+      <c r="I21">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J21">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.458574</v>
+      </c>
+      <c r="N21">
+        <v>82.917148</v>
+      </c>
+      <c r="O21">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P21">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q21">
+        <v>224.2093225054173</v>
+      </c>
+      <c r="R21">
+        <v>1345.255935032504</v>
+      </c>
+      <c r="S21">
+        <v>0.007799986436675967</v>
+      </c>
+      <c r="T21">
+        <v>0.00541854319648617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.186977</v>
+      </c>
+      <c r="H22">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J22">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.840024</v>
+      </c>
+      <c r="O22">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P22">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q22">
+        <v>8.631286722482665</v>
+      </c>
+      <c r="R22">
+        <v>51.78772033489599</v>
+      </c>
+      <c r="S22">
+        <v>0.0003002726140649191</v>
+      </c>
+      <c r="T22">
+        <v>0.0002085952511894319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.186977</v>
+      </c>
+      <c r="H23">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J23">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N23">
+        <v>557.408233</v>
+      </c>
+      <c r="O23">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P23">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q23">
+        <v>406.3463283938802</v>
+      </c>
+      <c r="R23">
+        <v>2438.077970363282</v>
+      </c>
+      <c r="S23">
+        <v>0.01413632499598121</v>
+      </c>
+      <c r="T23">
+        <v>0.00982031036235166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.186977</v>
+      </c>
+      <c r="H24">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J24">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N24">
+        <v>352.018273</v>
+      </c>
+      <c r="O24">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P24">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q24">
+        <v>256.6186222102403</v>
+      </c>
+      <c r="R24">
+        <v>1539.711733261442</v>
+      </c>
+      <c r="S24">
+        <v>0.008927468984212223</v>
+      </c>
+      <c r="T24">
+        <v>0.006201789800401165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.04768195522278</v>
-      </c>
-      <c r="H21">
-        <v>2.04768195522278</v>
-      </c>
-      <c r="I21">
-        <v>0.04015320024224129</v>
-      </c>
-      <c r="J21">
-        <v>0.04015320024224129</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="N21">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="O21">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="P21">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="Q21">
-        <v>83.97548202842984</v>
-      </c>
-      <c r="R21">
-        <v>83.97548202842984</v>
-      </c>
-      <c r="S21">
-        <v>0.003498932941303363</v>
-      </c>
-      <c r="T21">
-        <v>0.003498932941303363</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.186977</v>
+      </c>
+      <c r="H25">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J25">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N25">
+        <v>419.292457</v>
+      </c>
+      <c r="O25">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P25">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q25">
+        <v>305.6609865774963</v>
+      </c>
+      <c r="R25">
+        <v>1833.965919464978</v>
+      </c>
+      <c r="S25">
+        <v>0.01063359686780134</v>
+      </c>
+      <c r="T25">
+        <v>0.007387013353161197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.186977</v>
+      </c>
+      <c r="H26">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J26">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>41.458574</v>
+      </c>
+      <c r="N26">
+        <v>82.917148</v>
+      </c>
+      <c r="O26">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P26">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q26">
+        <v>90.66894779079799</v>
+      </c>
+      <c r="R26">
+        <v>362.6757911631919</v>
+      </c>
+      <c r="S26">
+        <v>0.003154269211882651</v>
+      </c>
+      <c r="T26">
+        <v>0.001460818264808525</v>
       </c>
     </row>
   </sheetData>
